--- a/0_Documents/ChiThi.xlsx
+++ b/0_Documents/ChiThi.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\CongDongKhoiNghiep\0_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ComunityStartup\0_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DA8D5-80D6-4B75-8294-915634AFAB83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B019D1F9-85FD-44E6-BD17-6B47A5E02F64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XEM UP BÀI GIẢI" sheetId="6" r:id="rId1"/>
-    <sheet name="CÂU HỎI VÀ BÀI GIẢI" sheetId="5" r:id="rId2"/>
-    <sheet name="TRANG CHỦ" sheetId="1" r:id="rId3"/>
-    <sheet name="DANH SÁCH HỌC TẬP" sheetId="4" r:id="rId4"/>
-    <sheet name="HỌC TẬP" sheetId="3" r:id="rId5"/>
+    <sheet name="CAUTRUCTHUMUC" sheetId="7" r:id="rId1"/>
+    <sheet name="XEM UP BÀI GIẢI" sheetId="6" r:id="rId2"/>
+    <sheet name="CÂU HỎI VÀ BÀI GIẢI" sheetId="5" r:id="rId3"/>
+    <sheet name="TRANG CHỦ" sheetId="1" r:id="rId4"/>
+    <sheet name="DANH SÁCH HỌC TẬP" sheetId="4" r:id="rId5"/>
+    <sheet name="HỌC TẬP" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t xml:space="preserve">Tên màn hình: </t>
   </si>
@@ -126,12 +127,57 @@
   <si>
     <t>Chức vụ</t>
   </si>
+  <si>
+    <t>CommunityStatup</t>
+  </si>
+  <si>
+    <t>1_SourceCode</t>
+  </si>
+  <si>
+    <t>controllers</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>index.php</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>home.php</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +203,14 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -403,10 +457,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -417,64 +472,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -491,14 +501,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,8 +537,34 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,6 +581,1056 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23D074F-3778-476E-8C85-5DC5A3B85664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="762000"/>
+          <a:ext cx="0" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90237</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECAA813-F57B-4EB0-A685-CCB8BE081A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2139616" y="847045"/>
+          <a:ext cx="306805" cy="5192"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140368</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140870</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB6824E-9F82-466D-9D26-49A027C399FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2586789" y="959519"/>
+          <a:ext cx="502" cy="2374231"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126332</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606592</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C489A75-9AE1-451D-ADAD-2BA637248366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2572753" y="1062789"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123324</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603584</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A2438E-5BCA-4552-AC25-5C0BF7D923C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2569745" y="1240254"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127836</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783E0310-FF79-47C5-B608-1025902AD091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3178342" y="1362576"/>
+          <a:ext cx="7520" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113298</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593558</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124147</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE40A12-DFEC-4C13-A22B-C8759DCF7C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3171324" y="1455820"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115303</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595563</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE52507E-4E3E-4D37-9BE4-CF0916099C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3173329" y="1633285"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122321</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602581</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC1A903-DEC4-4CA6-B6A6-AC3718C39525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3180347" y="1805737"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130342</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>610602</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2861CC32-0A87-4566-92FA-E5A84E56800D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2576763" y="2009273"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6015</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1086709-8270-4498-8235-A287C76694DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2583781" y="2196765"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129338</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3717A8-7064-4A82-B20F-FFB90C8CEFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2575759" y="3331744"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114802</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115303</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90237</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC4E517-62D7-465D-86FF-990190401F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3172828" y="2297029"/>
+          <a:ext cx="501" cy="269708"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100264</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0539BBDC-61FB-44A6-ADCF-3AF07BDC054B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3158290" y="2390273"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102269</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582529</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB9F675-7460-4B83-890B-AACD3980CB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3160295" y="2567738"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90236</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92241</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F7CEEB-9F69-4B2D-AC95-7B7C541CDF71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3759868" y="2667000"/>
+          <a:ext cx="2005" cy="517357"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85223</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565483</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E78B0B-DDC9-4267-93D4-E0D263197D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3754855" y="2820401"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87228</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>567488</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142193</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89927E29-7D74-4491-89CB-1FCAF3FC2E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3756860" y="2997866"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94246</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>574506</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99069F4C-D809-4FBE-B4E5-32BCB6D3C6FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3763878" y="3170318"/>
+          <a:ext cx="480260" cy="1827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2234,7 +3341,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4256,7 +5363,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6588,7 +7695,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7826,7 +8933,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9808,10 +10915,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6BEDCD-2ECD-422F-B2D0-AED9C812501C}">
+  <dimension ref="D4:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{3EA5AC91-4653-4C25-BE6B-5AF6A779C2B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D3FAE-6BFB-4889-B998-558FE9EA9365}">
   <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -9840,180 +11041,180 @@
     </row>
     <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
@@ -10568,7 +11769,7 @@
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="38"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -10580,11 +11781,11 @@
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -10594,9 +11795,9 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
         <v>13</v>
@@ -10604,7 +11805,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="46" t="s">
+      <c r="K65" s="31" t="s">
         <v>16</v>
       </c>
       <c r="L65" s="5"/>
@@ -10620,7 +11821,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="45" t="s">
+      <c r="K66" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L66" s="5"/>
@@ -10636,7 +11837,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="47" t="s">
+      <c r="K67" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L67" s="5"/>
@@ -10690,41 +11891,41 @@
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C72" s="39"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="41"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
     </row>
     <row r="73" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="42"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="44"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="C8:G10"/>
     <mergeCell ref="C11:G14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C64:E65"/>
     <mergeCell ref="C4:E5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10732,7 +11933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C87DEF-879D-43F8-B84B-DDA807423E5E}">
   <dimension ref="C2:L53"/>
   <sheetViews>
@@ -10765,180 +11966,180 @@
     </row>
     <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
@@ -11253,7 +12454,7 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="38"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -11265,11 +12466,11 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -11279,9 +12480,9 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
         <v>13</v>
@@ -11289,7 +12490,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="31" t="s">
         <v>16</v>
       </c>
       <c r="L45" s="5"/>
@@ -11305,7 +12506,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="45" t="s">
+      <c r="K46" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="5"/>
@@ -11321,7 +12522,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="47" t="s">
+      <c r="K47" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="5"/>
@@ -11375,41 +12576,41 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="41"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
     </row>
     <row r="53" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="42"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="C8:G10"/>
     <mergeCell ref="C11:G14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C44:E45"/>
     <mergeCell ref="C4:E5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11417,7 +12618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:L91"/>
   <sheetViews>
@@ -11448,188 +12649,188 @@
     </row>
     <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
@@ -11791,12 +12992,12 @@
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
@@ -11805,10 +13006,10 @@
       <c r="C32" s="6"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
@@ -11842,10 +13043,10 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -11856,8 +13057,8 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -11868,13 +13069,13 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
@@ -11882,11 +13083,11 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
@@ -11894,11 +13095,11 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
@@ -11906,11 +13107,11 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
@@ -11918,11 +13119,11 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
@@ -11999,10 +13200,10 @@
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C48" s="6"/>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="36"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -12013,8 +13214,8 @@
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="6"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -12025,13 +13226,13 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="6"/>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -12039,11 +13240,11 @@
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="6"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -12051,11 +13252,11 @@
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="6"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -12063,11 +13264,11 @@
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="6"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -12075,11 +13276,11 @@
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="6"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -12161,12 +13362,12 @@
       <c r="C61" s="6"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="5"/>
@@ -12175,10 +13376,10 @@
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="5"/>
@@ -12400,7 +13601,7 @@
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="38"/>
+      <c r="C81" s="23"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -12412,11 +13613,11 @@
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -12426,9 +13627,9 @@
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
         <v>13</v>
@@ -12436,7 +13637,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="46" t="s">
+      <c r="K83" s="31" t="s">
         <v>16</v>
       </c>
       <c r="L83" s="5"/>
@@ -12452,7 +13653,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="45" t="s">
+      <c r="K84" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L84" s="5"/>
@@ -12468,7 +13669,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="47" t="s">
+      <c r="K85" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L85" s="5"/>
@@ -12522,46 +13723,46 @@
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C90" s="39"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="41"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="26"/>
     </row>
     <row r="91" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="42"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="44"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C8:G10"/>
+    <mergeCell ref="C11:G14"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="G37:K41"/>
     <mergeCell ref="D50:H54"/>
     <mergeCell ref="D48:E49"/>
     <mergeCell ref="F61:I62"/>
     <mergeCell ref="C82:E83"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C8:G10"/>
-    <mergeCell ref="C11:G14"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="G37:K41"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12569,7 +13770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A200C-D9E6-433B-9F49-FA0892503E60}">
   <dimension ref="C2:L51"/>
   <sheetViews>
@@ -12602,180 +13803,180 @@
     </row>
     <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
@@ -12887,212 +14088,212 @@
     </row>
     <row r="26" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="6"/>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="33" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
-      <c r="D27" s="50">
+      <c r="D27" s="33">
         <v>1</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
-      <c r="D28" s="50">
+      <c r="D28" s="33">
         <v>2</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
-      <c r="D29" s="50">
+      <c r="D29" s="33">
         <v>3</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6"/>
-      <c r="D30" s="50">
+      <c r="D30" s="33">
         <v>4</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
-      <c r="D31" s="50">
+      <c r="D31" s="33">
         <v>5</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
-      <c r="D32" s="50">
+      <c r="D32" s="33">
         <v>6</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
-      <c r="D33" s="50">
+      <c r="D33" s="33">
         <v>7</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="6"/>
-      <c r="D34" s="50">
+      <c r="D34" s="33">
         <v>8</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="6"/>
-      <c r="D35" s="50">
+      <c r="D35" s="33">
         <v>9</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6"/>
-      <c r="D36" s="50">
+      <c r="D36" s="33">
         <v>10</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
-      <c r="D37" s="50">
+      <c r="D37" s="33">
         <v>11</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
-      <c r="D38" s="50">
+      <c r="D38" s="33">
         <v>12</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
-      <c r="D39" s="50">
+      <c r="D39" s="33">
         <v>13</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13108,7 +14309,7 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="38"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -13120,11 +14321,11 @@
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -13134,9 +14335,9 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
         <v>13</v>
@@ -13144,7 +14345,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="46" t="s">
+      <c r="K43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="L43" s="5"/>
@@ -13160,7 +14361,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="45" t="s">
+      <c r="K44" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="5"/>
@@ -13176,7 +14377,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="47" t="s">
+      <c r="K45" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="5"/>
@@ -13230,41 +14431,41 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="41"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
     </row>
     <row r="51" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="42"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="44"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="C42:E43"/>
     <mergeCell ref="C8:G10"/>
     <mergeCell ref="C11:G14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C4:E5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13272,7 +14473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0220323A-0C01-44AE-A113-33C03F2C947A}">
   <dimension ref="C2:L75"/>
   <sheetViews>
@@ -13304,180 +14505,180 @@
     </row>
     <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="51" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="6"/>
@@ -13508,10 +14709,10 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -13522,8 +14723,8 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -13534,13 +14735,13 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
@@ -13548,11 +14749,11 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
@@ -13560,11 +14761,11 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
@@ -13572,11 +14773,11 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
@@ -13584,11 +14785,11 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
@@ -13665,10 +14866,10 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="6"/>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -13679,8 +14880,8 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="6"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -13691,13 +14892,13 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="6"/>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -13705,11 +14906,11 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="6"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -13717,11 +14918,11 @@
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="6"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -13729,11 +14930,11 @@
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37" s="6"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -13741,11 +14942,11 @@
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="6"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -13827,12 +15028,12 @@
       <c r="C45" s="6"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="5"/>
@@ -13841,10 +15042,10 @@
       <c r="C46" s="6"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="5"/>
@@ -14066,7 +15267,7 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="38"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -14078,11 +15279,11 @@
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -14092,9 +15293,9 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
         <v>13</v>
@@ -14102,7 +15303,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="46" t="s">
+      <c r="K67" s="31" t="s">
         <v>16</v>
       </c>
       <c r="L67" s="5"/>
@@ -14118,7 +15319,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="45" t="s">
+      <c r="K68" s="30" t="s">
         <v>17</v>
       </c>
       <c r="L68" s="5"/>
@@ -14134,7 +15335,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="47" t="s">
+      <c r="K69" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L69" s="5"/>
@@ -14188,28 +15389,28 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C74" s="39"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="41"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="26"/>
     </row>
     <row r="75" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="42"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="44"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
